--- a/2. 연구사업(2023년)/6. 분석결과/data_analysis/혼합음료 제조사 제품 성분/grouped_data_detailed_results.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/data_analysis/혼합음료 제조사 제품 성분/grouped_data_detailed_results.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Study\2. 연구사업(2023년)\6. 분석결과\data_analysis\혼합음료 제조사 제품 성분\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
@@ -10,12 +15,12 @@
     <sheet name="Group Occurrences" sheetId="1" r:id="rId1"/>
     <sheet name="Group Text Counts" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="81">
   <si>
     <t>Group</t>
   </si>
@@ -263,12 +268,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -276,8 +281,40 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -316,22 +353,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -373,7 +425,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,9 +457,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -439,6 +492,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -614,19 +668,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -634,7 +688,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -642,7 +696,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -650,7 +704,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -658,7 +712,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -666,7 +720,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -674,7 +728,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -682,7 +736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -690,7 +744,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -698,7 +752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -706,7 +760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -714,7 +768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -722,7 +776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -731,690 +785,798 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="A1:C70"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1" t="s">
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1" t="s">
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1" t="s">
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
+      <c r="C40" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1" t="s">
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1" t="s">
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1" t="s">
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1" t="s">
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1" t="s">
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1" t="s">
+      <c r="C47" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1" t="s">
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1" t="s">
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1" t="s">
+      <c r="C52" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="1" t="s">
+      <c r="C53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1" t="s">
+      <c r="C54" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1" t="s">
+      <c r="C57" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1" t="s">
+      <c r="C58" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1" t="s">
+      <c r="C59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1" t="s">
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62" s="1" t="s">
+      <c r="C61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1" t="s">
+      <c r="C66" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1" t="s">
+      <c r="C67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1" t="s">
+      <c r="C68" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1" t="s">
+      <c r="C69" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A3:A15"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="A62:A70"/>
-  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>